--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\projekt-main\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E993D22-29F2-4CB1-A405-AA6049A9820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F14A3-24E6-4585-BFB3-687B620B1A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="59">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -77,36 +77,12 @@
     <t>ELE_NEW_NUC_SMR</t>
   </si>
   <si>
-    <t>SMRów/5lat</t>
-  </si>
-  <si>
-    <t>moc SMRa</t>
-  </si>
-  <si>
-    <t>NCAP fx</t>
-  </si>
-  <si>
-    <t>Plan Orlenu</t>
-  </si>
-  <si>
-    <t>NCAP LO</t>
-  </si>
-  <si>
-    <t>RAZEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">\I: </t>
   </si>
   <si>
-    <t>NCAP UP</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
-    <t>Ograniczenia górne i FX dla 2030</t>
-  </si>
-  <si>
     <t>Ograniczenie mocy całkowitej w roku 2040</t>
   </si>
   <si>
@@ -174,6 +150,66 @@
   </si>
   <si>
     <t>NCAP_START</t>
+  </si>
+  <si>
+    <t>Ograniczenia podaży rzepaku</t>
+  </si>
+  <si>
+    <t>te elektrownie zaczynają się tworzyć po naszym modelu (zastopowaliśmy je) - brak elektrowni na węgiel brunatny i kamienny</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla SMR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind on</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind off</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla pv grnd</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_GRND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_ROOF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne pv roof</t>
+  </si>
+  <si>
+    <t>Ograniczenie mocy całkowitej w roku 2050</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_COCONUT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_CANOLA</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla kokosa</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Ograniczenie dolne mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla rzepaka</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla jądrówki</t>
   </si>
 </sst>
 </file>
@@ -181,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -225,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +295,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,16 +382,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -355,33 +394,20 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,25 +715,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="2.19921875" customWidth="1"/>
-    <col min="11" max="11" width="12.46484375" customWidth="1"/>
+    <col min="9" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -718,7 +744,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -734,25 +760,19 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -768,52 +788,32 @@
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-      <c r="M5">
-        <f>K5*L5/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -831,26 +831,8 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>300</v>
-      </c>
-      <c r="M6">
-        <f>K6*L6/1000</f>
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <f>M6</f>
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <f>N6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -861,34 +843,15 @@
         <v>2030</v>
       </c>
       <c r="E7" s="5">
-        <f>M6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="K7">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>300</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M10" si="0">K7*L7/1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="N7">
-        <f>INT($K7*N$3)*$L7/1000</f>
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <f>INT($K7*O$3)*$L7/1000</f>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -899,34 +862,15 @@
         <v>2035</v>
       </c>
       <c r="E8" s="4">
-        <f>O7</f>
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="L8">
-        <v>300</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <f>INT($K8*N$3)*$L8/1000</f>
-        <v>9.6</v>
-      </c>
-      <c r="O8">
-        <f>INT($K8*O$3)*$L8/1000</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -937,26 +881,15 @@
         <v>2040</v>
       </c>
       <c r="E9" s="5">
-        <f>O8</f>
-        <v>14.4</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>300</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -967,25 +900,15 @@
         <v>2045</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>300</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -996,35 +919,29 @@
         <v>2050</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <f>SUM(M5:M10)</f>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -1035,639 +952,1757 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <f>M11</f>
-        <v>22.8</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E15" s="18">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E16" s="18">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E17" s="18">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E18" s="18">
         <v>20</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E19" s="18">
         <v>25</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2025</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2030</v>
-      </c>
-      <c r="E17">
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="18">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2035</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E19">
+      <c r="E22" s="19">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2045</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2050</v>
-      </c>
-      <c r="E21">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="F22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="E24" s="18">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
+      <c r="E25" s="18">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
+      <c r="E26" s="18">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
+      <c r="E27" s="18">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
+      <c r="E28" s="18">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="18">
+        <v>24</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E31" s="19">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="18">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E34" s="18">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E35" s="18">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E36" s="18">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E37" s="18">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E38" s="18">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E40" s="19">
+        <v>40</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="18">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E43" s="18">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E44" s="18">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E45" s="18">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E46" s="18">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E47" s="18">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E49" s="19">
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E51" s="18">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E52" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E53" s="18">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E54" s="18">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E55" s="18">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E56" s="18">
+        <v>2</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E58" s="19">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E60" s="18">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E61" s="18">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E62" s="18">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E63" s="18">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E64" s="18">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E65" s="18">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E67" s="19">
+        <v>30</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E69" s="18">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E70" s="18">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E71" s="18">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E72" s="18">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E73" s="18">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E74" s="18">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E76" s="9">
+        <v>30</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78" s="21">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E79" s="21">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E80" s="21">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E81" s="21">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E82" s="21">
+        <v>50</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E83" s="21">
+        <v>60</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E84" s="21">
+        <v>60</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="21">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E87" s="21">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E88" s="21">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E89" s="21">
+        <v>50</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E90" s="21">
+        <v>100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E91" s="21">
+        <v>120</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E92" s="21">
+        <v>120</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E94" s="22">
+        <v>141.68</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E95" s="22">
+        <v>123.2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E96" s="22">
+        <v>115.5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E97" s="22">
+        <v>107.8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E98" s="22">
+        <v>101.64</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E99" s="22">
+        <v>96.25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C101" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E101" s="22">
+        <v>765.45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D102" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E102" s="22">
+        <v>800.87</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E103" s="22">
+        <v>840.91</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E104" s="22">
+        <v>881.29</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C105" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E105" s="22">
+        <v>921.96</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E106" s="22">
+        <v>952.4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108">
+        <v>2060</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109">
+        <v>2060</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110">
+        <v>2060</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111">
+        <v>2060</v>
+      </c>
+      <c r="F111" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="15">
-        <v>2025</v>
-      </c>
-      <c r="E31" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="13">
-        <v>2030</v>
-      </c>
-      <c r="E32" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2035</v>
-      </c>
-      <c r="E33" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2040</v>
-      </c>
-      <c r="E34" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="15">
-        <v>2045</v>
-      </c>
-      <c r="E35" s="14">
-        <v>127.7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E36" s="12">
-        <v>127.7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C38" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2025</v>
-      </c>
-      <c r="E38" s="14">
-        <v>25</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2030</v>
-      </c>
-      <c r="E39" s="12">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2035</v>
-      </c>
-      <c r="E40" s="14">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="13">
-        <v>2040</v>
-      </c>
-      <c r="E41" s="12">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2045</v>
-      </c>
-      <c r="E42" s="14">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C43" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2050</v>
-      </c>
-      <c r="E43" s="12">
-        <v>25</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112">
         <v>2060</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46">
+      <c r="E113">
         <v>2060</v>
       </c>
-      <c r="F46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>2060</v>
-      </c>
-      <c r="F47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48">
-        <v>2060</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49">
-        <v>2060</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50">
-        <v>2060</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
+      <c r="F113" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1691,17 +2726,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1896,6 +2920,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -1905,19 +2940,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1934,4 +2956,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\projekt-main\projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F14A3-24E6-4585-BFB3-687B620B1A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66940580-F8B3-4F91-B6BE-77836C34B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,15 +395,15 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -717,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E69" activeCellId="1" sqref="E67 E69:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,7 +977,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1002,7 +996,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1021,7 +1015,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="21">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1040,7 +1034,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1059,7 +1053,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1078,8 +1072,8 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="18">
-        <v>30</v>
+      <c r="E20" s="21">
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
@@ -1110,8 +1104,8 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="19">
-        <v>50</v>
+      <c r="E22" s="22">
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
@@ -1142,8 +1136,8 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="18">
-        <v>4</v>
+      <c r="E24" s="21">
+        <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1161,7 +1155,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1180,7 +1174,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="21">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1199,7 +1193,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="21">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1218,7 +1212,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="21">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1237,8 +1231,8 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="18">
-        <v>24</v>
+      <c r="E29" s="21">
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1269,8 +1263,8 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="19">
-        <v>40</v>
+      <c r="E31" s="22">
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1301,8 +1295,8 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="18">
-        <v>10</v>
+      <c r="E33" s="21">
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>51</v>
@@ -1320,8 +1314,8 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="18">
-        <v>10</v>
+      <c r="E34" s="21">
+        <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>51</v>
@@ -1339,8 +1333,8 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="18">
-        <v>10</v>
+      <c r="E35" s="21">
+        <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>51</v>
@@ -1358,8 +1352,8 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="18">
-        <v>10</v>
+      <c r="E36" s="21">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>51</v>
@@ -1377,8 +1371,8 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="18">
-        <v>10</v>
+      <c r="E37" s="21">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>51</v>
@@ -1396,8 +1390,8 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="18">
-        <v>10</v>
+      <c r="E38" s="21">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>51</v>
@@ -1428,8 +1422,8 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="19">
-        <v>40</v>
+      <c r="E40" s="22">
+        <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>51</v>
@@ -1460,7 +1454,7 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="21">
         <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -1479,8 +1473,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="18">
-        <v>10</v>
+      <c r="E43" s="21">
+        <v>14</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1498,8 +1492,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="18">
-        <v>10</v>
+      <c r="E44" s="21">
+        <v>15.8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1517,8 +1511,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="18">
-        <v>10</v>
+      <c r="E45" s="21">
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1536,8 +1530,8 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="18">
-        <v>10</v>
+      <c r="E46" s="21">
+        <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1555,8 +1549,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="18">
-        <v>10</v>
+      <c r="E47" s="21">
+        <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1587,7 +1581,7 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="22">
         <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -1619,7 +1613,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="21">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1638,7 +1632,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="21">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1657,7 +1651,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="21">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1676,7 +1670,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="21">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1695,7 +1689,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="21">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1714,7 +1708,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="21">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1746,7 +1740,7 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="22">
         <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1778,8 +1772,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="18">
-        <v>10</v>
+      <c r="E60" s="21">
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1797,8 +1791,8 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="18">
-        <v>10</v>
+      <c r="E61" s="21">
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1816,8 +1810,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="18">
-        <v>10</v>
+      <c r="E62" s="21">
+        <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1835,8 +1829,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="18">
-        <v>10</v>
+      <c r="E63" s="21">
+        <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1854,8 +1848,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="18">
-        <v>10</v>
+      <c r="E64" s="21">
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1873,8 +1867,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="18">
-        <v>10</v>
+      <c r="E65" s="21">
+        <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1905,8 +1899,8 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="19">
-        <v>30</v>
+      <c r="E67" s="22">
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>47</v>
@@ -1937,8 +1931,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="18">
-        <v>10</v>
+      <c r="E69" s="21">
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1956,8 +1950,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="18">
-        <v>10</v>
+      <c r="E70" s="21">
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1975,8 +1969,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="18">
-        <v>10</v>
+      <c r="E71" s="21">
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1994,8 +1988,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="18">
-        <v>10</v>
+      <c r="E72" s="21">
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2013,8 +2007,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="18">
-        <v>10</v>
+      <c r="E73" s="21">
+        <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2032,8 +2026,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="18">
-        <v>10</v>
+      <c r="E74" s="21">
+        <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2065,7 +2059,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>48</v>
@@ -2098,7 +2092,7 @@
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="18">
         <v>0</v>
       </c>
       <c r="F78" t="s">
@@ -2115,7 +2109,7 @@
       <c r="D79" s="4">
         <v>2025</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="18">
         <v>10</v>
       </c>
       <c r="F79" t="s">
@@ -2132,7 +2126,7 @@
       <c r="D80" s="5">
         <v>2030</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="18">
         <v>20</v>
       </c>
       <c r="F80" t="s">
@@ -2149,8 +2143,8 @@
       <c r="D81" s="4">
         <v>2035</v>
       </c>
-      <c r="E81" s="21">
-        <v>20</v>
+      <c r="E81" s="18">
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2166,7 +2160,7 @@
       <c r="D82" s="5">
         <v>2040</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="18">
         <v>50</v>
       </c>
       <c r="F82" t="s">
@@ -2183,7 +2177,7 @@
       <c r="D83" s="4">
         <v>2045</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="18">
         <v>60</v>
       </c>
       <c r="F83" t="s">
@@ -2200,8 +2194,8 @@
       <c r="D84" s="5">
         <v>2050</v>
       </c>
-      <c r="E84" s="21">
-        <v>60</v>
+      <c r="E84" s="18">
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2232,7 +2226,7 @@
       <c r="D86">
         <v>2020</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="18">
         <v>0</v>
       </c>
       <c r="F86" t="s">
@@ -2249,7 +2243,7 @@
       <c r="D87" s="4">
         <v>2025</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="18">
         <v>8</v>
       </c>
       <c r="F87" t="s">
@@ -2266,7 +2260,7 @@
       <c r="D88" s="5">
         <v>2030</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="18">
         <v>20</v>
       </c>
       <c r="F88" t="s">
@@ -2283,7 +2277,7 @@
       <c r="D89" s="4">
         <v>2035</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="18">
         <v>50</v>
       </c>
       <c r="F89" t="s">
@@ -2300,7 +2294,7 @@
       <c r="D90" s="5">
         <v>2040</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="18">
         <v>100</v>
       </c>
       <c r="F90" t="s">
@@ -2317,7 +2311,7 @@
       <c r="D91" s="4">
         <v>2045</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="18">
         <v>120</v>
       </c>
       <c r="F91" t="s">
@@ -2334,8 +2328,8 @@
       <c r="D92" s="5">
         <v>2050</v>
       </c>
-      <c r="E92" s="21">
-        <v>120</v>
+      <c r="E92" s="18">
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -2364,7 +2358,7 @@
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="19">
         <v>141.68</v>
       </c>
       <c r="F94" t="s">
@@ -2385,7 +2379,7 @@
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="19">
         <v>123.2</v>
       </c>
       <c r="F95" t="s">
@@ -2406,7 +2400,7 @@
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="19">
         <v>115.5</v>
       </c>
       <c r="F96" t="s">
@@ -2427,7 +2421,7 @@
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="19">
         <v>107.8</v>
       </c>
       <c r="F97" t="s">
@@ -2448,7 +2442,7 @@
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="19">
         <v>101.64</v>
       </c>
       <c r="F98" t="s">
@@ -2469,7 +2463,7 @@
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="19">
         <v>96.25</v>
       </c>
       <c r="F99" t="s">
@@ -2506,7 +2500,7 @@
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="19">
         <v>765.45</v>
       </c>
       <c r="F101" t="s">
@@ -2527,7 +2521,7 @@
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102" s="22">
+      <c r="E102" s="19">
         <v>800.87</v>
       </c>
       <c r="F102" t="s">
@@ -2548,7 +2542,7 @@
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103" s="22">
+      <c r="E103" s="19">
         <v>840.91</v>
       </c>
       <c r="F103" t="s">
@@ -2569,7 +2563,7 @@
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="19">
         <v>881.29</v>
       </c>
       <c r="F104" t="s">
@@ -2590,7 +2584,7 @@
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="19">
         <v>921.96</v>
       </c>
       <c r="F105" t="s">
@@ -2611,7 +2605,7 @@
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="19">
         <v>952.4</v>
       </c>
       <c r="F106" t="s">
@@ -2726,6 +2720,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2920,17 +2925,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -2940,6 +2934,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2956,17 +2963,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66940580-F8B3-4F91-B6BE-77836C34B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC930D7-4454-440D-8ECA-22D0EFA336DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,11 +399,11 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E69" activeCellId="1" sqref="E67 E69:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,9 +760,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -977,7 +977,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -996,7 +996,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1015,7 +1015,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1034,7 +1034,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1053,7 +1053,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1072,7 +1072,7 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1104,7 +1104,7 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1136,7 +1136,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1155,7 +1155,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1174,7 +1174,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1193,7 +1193,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1212,7 +1212,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1231,7 +1231,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1263,7 +1263,7 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1295,7 +1295,7 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1314,7 +1314,7 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1333,7 +1333,7 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1352,7 +1352,7 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1371,7 +1371,7 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1390,7 +1390,7 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1422,7 +1422,7 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1454,8 +1454,8 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="21">
-        <v>10</v>
+      <c r="E42" s="20">
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1473,8 +1473,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="21">
-        <v>14</v>
+      <c r="E43" s="20">
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1492,8 +1492,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="21">
-        <v>15.8</v>
+      <c r="E44" s="20">
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1511,8 +1511,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="21">
-        <v>18</v>
+      <c r="E45" s="20">
+        <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1530,8 +1530,8 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="21">
-        <v>20</v>
+      <c r="E46" s="20">
+        <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1549,8 +1549,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="21">
-        <v>24</v>
+      <c r="E47" s="20">
+        <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1581,8 +1581,8 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="22">
-        <v>30</v>
+      <c r="E49" s="21">
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1613,7 +1613,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1632,7 +1632,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1651,7 +1651,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1670,7 +1670,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1689,7 +1689,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1708,7 +1708,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1740,7 +1740,7 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="21">
         <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1772,7 +1772,7 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -1791,7 +1791,7 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -1810,7 +1810,7 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -1829,7 +1829,7 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="20">
         <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -1848,7 +1848,7 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -1867,7 +1867,7 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="20">
         <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -1899,7 +1899,7 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="21">
         <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -1931,7 +1931,7 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -1950,7 +1950,7 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="21">
+      <c r="E70" s="20">
         <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -1969,7 +1969,7 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E71" s="20">
         <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -1988,7 +1988,7 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E72" s="20">
         <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -2007,7 +2007,7 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="20">
         <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -2026,7 +2026,7 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="20">
         <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -2720,17 +2720,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2925,6 +2914,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -2934,19 +2934,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2963,4 +2950,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC930D7-4454-440D-8ECA-22D0EFA336DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210529B4-2032-4E50-B9E3-49D594937D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -396,14 +396,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -709,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O113"/>
+  <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,9 +758,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -946,7 +944,7 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -977,7 +975,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -996,7 +994,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1015,7 +1013,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1034,7 +1032,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1053,7 +1051,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1072,7 +1070,7 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1104,7 +1102,7 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1136,7 +1134,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1155,7 +1153,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1174,7 +1172,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1193,7 +1191,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1212,7 +1210,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1231,7 +1229,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1263,8 +1261,8 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="21">
-        <v>15</v>
+      <c r="E31" s="20">
+        <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1295,7 +1293,7 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1314,7 +1312,7 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1333,7 +1331,7 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1352,7 +1350,7 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1371,7 +1369,7 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1390,7 +1388,7 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1422,7 +1420,7 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1454,8 +1452,8 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="20">
-        <v>5</v>
+      <c r="E42" s="19">
+        <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1473,8 +1471,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="20">
-        <v>7</v>
+      <c r="E43" s="19">
+        <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1492,8 +1490,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="20">
-        <v>8</v>
+      <c r="E44" s="19">
+        <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1511,8 +1509,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="20">
-        <v>9</v>
+      <c r="E45" s="19">
+        <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1530,8 +1528,8 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="20">
-        <v>10</v>
+      <c r="E46" s="19">
+        <v>9</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1549,8 +1547,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="20">
-        <v>12</v>
+      <c r="E47" s="19">
+        <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1581,8 +1579,8 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="21">
-        <v>15</v>
+      <c r="E49" s="20">
+        <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1613,7 +1611,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1632,7 +1630,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1651,7 +1649,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1670,7 +1668,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1689,7 +1687,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1708,7 +1706,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1740,8 +1738,8 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="21">
-        <v>16.899999999999999</v>
+      <c r="E58" s="20">
+        <v>6</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>45</v>
@@ -1772,8 +1770,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="20">
-        <v>7</v>
+      <c r="E60" s="19">
+        <v>6</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1791,8 +1789,8 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="20">
-        <v>15</v>
+      <c r="E61" s="19">
+        <v>10</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1810,8 +1808,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="20">
-        <v>25</v>
+      <c r="E62" s="19">
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1829,8 +1827,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="20">
-        <v>40</v>
+      <c r="E63" s="19">
+        <v>31</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1848,8 +1846,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="20">
-        <v>50</v>
+      <c r="E64" s="19">
+        <v>37</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1867,8 +1865,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="20">
-        <v>58</v>
+      <c r="E65" s="19">
+        <v>44</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1899,7 +1897,7 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -1931,8 +1929,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="20">
-        <v>14</v>
+      <c r="E69" s="19">
+        <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1950,8 +1948,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="20">
-        <v>20</v>
+      <c r="E70" s="19">
+        <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1969,8 +1967,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="20">
-        <v>23</v>
+      <c r="E71" s="19">
+        <v>21</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1988,8 +1986,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="20">
-        <v>28</v>
+      <c r="E72" s="19">
+        <v>25</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2007,8 +2005,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="20">
-        <v>32</v>
+      <c r="E73" s="19">
+        <v>30</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2026,8 +2024,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="20">
-        <v>35</v>
+      <c r="E74" s="19">
+        <v>32</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2133,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2216,7 +2214,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2351,15 +2349,15 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94" s="19">
-        <v>141.68</v>
+      <c r="E94">
+        <v>111.68</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2371,16 +2369,17 @@
         <v>28</v>
       </c>
       <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N94" s="22"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95" s="19">
-        <v>123.2</v>
+      <c r="E95">
+        <v>93.2</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2392,16 +2391,17 @@
         <v>28</v>
       </c>
       <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N95" s="22"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96" s="19">
-        <v>115.5</v>
+      <c r="E96">
+        <v>85.5</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2413,16 +2413,17 @@
         <v>28</v>
       </c>
       <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N96" s="22"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97" s="19">
-        <v>107.8</v>
+      <c r="E97">
+        <v>77.8</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2434,16 +2435,17 @@
         <v>28</v>
       </c>
       <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N97" s="22"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="19">
-        <v>101.64</v>
+      <c r="E98" s="22">
+        <v>71.64</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2455,16 +2457,17 @@
         <v>28</v>
       </c>
       <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N98" s="22"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="19">
-        <v>96.25</v>
+      <c r="E99" s="22">
+        <v>66.25</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2476,8 +2479,9 @@
         <v>28</v>
       </c>
       <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N99" s="22"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
@@ -2492,16 +2496,17 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101" s="19">
-        <v>765.45</v>
+      <c r="E101">
+        <v>332.72500000000002</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2513,16 +2518,17 @@
         <v>29</v>
       </c>
       <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102" s="19">
-        <v>800.87</v>
+      <c r="E102">
+        <v>350.435</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2534,16 +2540,17 @@
         <v>29</v>
       </c>
       <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103" s="19">
-        <v>840.91</v>
+      <c r="E103">
+        <v>370.45499999999998</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2555,16 +2562,17 @@
         <v>29</v>
       </c>
       <c r="I103" s="12"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104" s="19">
-        <v>881.29</v>
+      <c r="E104">
+        <v>390.64499999999998</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2576,16 +2584,17 @@
         <v>29</v>
       </c>
       <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105" s="19">
-        <v>921.96</v>
+      <c r="E105">
+        <v>410.98</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2598,15 +2607,15 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106" s="19">
-        <v>952.4</v>
+      <c r="E106">
+        <v>426.2</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2633,7 +2642,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2711,12 +2720,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2915,20 +2926,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2953,14 +2967,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210529B4-2032-4E50-B9E3-49D594937D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1413992B-9020-40C0-92C7-3A38399A6B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -758,9 +758,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -2357,7 +2357,7 @@
         <v>2025</v>
       </c>
       <c r="E94">
-        <v>111.68</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2369,7 +2369,7 @@
         <v>28</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="N94" s="22"/>
+      <c r="N94" s="21"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
@@ -2379,7 +2379,7 @@
         <v>2030</v>
       </c>
       <c r="E95">
-        <v>93.2</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2391,7 +2391,7 @@
         <v>28</v>
       </c>
       <c r="I95" s="11"/>
-      <c r="N95" s="22"/>
+      <c r="N95" s="21"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
@@ -2401,7 +2401,7 @@
         <v>2035</v>
       </c>
       <c r="E96">
-        <v>85.5</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2413,7 +2413,7 @@
         <v>28</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="N96" s="22"/>
+      <c r="N96" s="21"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
@@ -2423,7 +2423,7 @@
         <v>2040</v>
       </c>
       <c r="E97">
-        <v>77.8</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2435,7 +2435,7 @@
         <v>28</v>
       </c>
       <c r="I97" s="11"/>
-      <c r="N97" s="22"/>
+      <c r="N97" s="21"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
@@ -2444,8 +2444,8 @@
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="22">
-        <v>71.64</v>
+      <c r="E98" s="21">
+        <v>12</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2457,7 +2457,7 @@
         <v>28</v>
       </c>
       <c r="I98" s="12"/>
-      <c r="N98" s="22"/>
+      <c r="N98" s="21"/>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
@@ -2466,8 +2466,8 @@
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="22">
-        <v>66.25</v>
+      <c r="E99" s="21">
+        <v>21</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2479,7 +2479,7 @@
         <v>28</v>
       </c>
       <c r="I99" s="11"/>
-      <c r="N99" s="22"/>
+      <c r="N99" s="21"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
@@ -2496,7 +2496,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-      <c r="P100" s="22"/>
+      <c r="P100" s="21"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
@@ -2506,7 +2506,7 @@
         <v>2025</v>
       </c>
       <c r="E101">
-        <v>332.72500000000002</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2518,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="P101" s="22"/>
+      <c r="P101" s="21"/>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
@@ -2528,7 +2528,7 @@
         <v>2030</v>
       </c>
       <c r="E102">
-        <v>350.435</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2540,7 +2540,7 @@
         <v>29</v>
       </c>
       <c r="I102" s="11"/>
-      <c r="P102" s="22"/>
+      <c r="P102" s="21"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
@@ -2550,7 +2550,7 @@
         <v>2035</v>
       </c>
       <c r="E103">
-        <v>370.45499999999998</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2562,7 +2562,7 @@
         <v>29</v>
       </c>
       <c r="I103" s="12"/>
-      <c r="P103" s="22"/>
+      <c r="P103" s="21"/>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
@@ -2572,7 +2572,7 @@
         <v>2040</v>
       </c>
       <c r="E104">
-        <v>390.64499999999998</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2584,7 +2584,7 @@
         <v>29</v>
       </c>
       <c r="I104" s="11"/>
-      <c r="P104" s="22"/>
+      <c r="P104" s="21"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
@@ -2594,7 +2594,7 @@
         <v>2045</v>
       </c>
       <c r="E105">
-        <v>410.98</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2615,7 +2615,7 @@
         <v>2050</v>
       </c>
       <c r="E106">
-        <v>426.2</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2731,6 +2731,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2925,15 +2934,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2948,6 +2948,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2964,12 +2972,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1413992B-9020-40C0-92C7-3A38399A6B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22903F5F-A05D-4A77-B07C-D9CEFC30B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2357,7 @@
         <v>2025</v>
       </c>
       <c r="E94">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2379,7 +2379,7 @@
         <v>2030</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2401,7 +2401,7 @@
         <v>2035</v>
       </c>
       <c r="E96">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2423,7 +2423,7 @@
         <v>2040</v>
       </c>
       <c r="E97">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2445,7 +2445,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="21">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2467,7 +2467,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2506,7 +2506,7 @@
         <v>2025</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2528,7 +2528,7 @@
         <v>2030</v>
       </c>
       <c r="E102">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2550,7 +2550,7 @@
         <v>2035</v>
       </c>
       <c r="E103">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>2040</v>
       </c>
       <c r="E104">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2594,7 +2594,7 @@
         <v>2045</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2615,7 +2615,7 @@
         <v>2050</v>
       </c>
       <c r="E106">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2731,15 +2731,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2934,6 +2925,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2948,14 +2948,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2972,4 +2964,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22903F5F-A05D-4A77-B07C-D9CEFC30B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9CF16-D5B1-44EA-981D-F2626D1C3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,7 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,9 +402,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,25 +715,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P113"/>
+  <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
     <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="9" max="10" width="2.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -736,7 +744,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -764,7 +772,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -792,7 +800,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
@@ -805,7 +813,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -843,7 +851,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -862,7 +870,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -881,7 +889,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -900,7 +908,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -920,7 +928,7 @@
       <c r="H11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -933,7 +941,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -944,7 +952,7 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -952,7 +960,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -965,7 +973,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
@@ -975,7 +983,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -984,7 +992,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -994,7 +1002,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1003,7 +1011,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1021,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1022,7 +1030,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1032,7 +1040,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1041,7 +1049,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1051,7 +1059,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1060,7 +1068,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -1070,8 +1078,8 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="19">
-        <v>40</v>
+      <c r="E20" s="20">
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
@@ -1079,7 +1087,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1100,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
@@ -1102,8 +1110,8 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="20">
-        <v>20</v>
+      <c r="E22" s="21">
+        <v>50</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
@@ -1111,7 +1119,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1132,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1134,8 +1142,8 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="19">
-        <v>0</v>
+      <c r="E24" s="20">
+        <v>4</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1143,7 +1151,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1153,7 +1161,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="20">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1162,7 +1170,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1172,7 +1180,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1181,7 +1189,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1191,7 +1199,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="20">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1200,7 +1208,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1210,7 +1218,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="20">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1219,7 +1227,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1229,8 +1237,8 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="19">
-        <v>40</v>
+      <c r="E29" s="20">
+        <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1238,7 +1246,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1259,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1261,8 +1269,8 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="20">
-        <v>20</v>
+      <c r="E31" s="21">
+        <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1270,7 +1278,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1291,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1293,8 +1301,8 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="19">
-        <v>0</v>
+      <c r="E33" s="20">
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>51</v>
@@ -1302,7 +1310,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1312,8 +1320,8 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="19">
-        <v>0</v>
+      <c r="E34" s="20">
+        <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>51</v>
@@ -1321,7 +1329,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1331,8 +1339,8 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="19">
-        <v>3.3</v>
+      <c r="E35" s="20">
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>51</v>
@@ -1340,7 +1348,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1350,8 +1358,8 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="19">
-        <v>4.0999999999999996</v>
+      <c r="E36" s="20">
+        <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>51</v>
@@ -1359,7 +1367,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1369,8 +1377,8 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="19">
-        <v>4.0999999999999996</v>
+      <c r="E37" s="20">
+        <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>51</v>
@@ -1378,7 +1386,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1388,8 +1396,8 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="19">
-        <v>4.0999999999999996</v>
+      <c r="E38" s="20">
+        <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>51</v>
@@ -1397,7 +1405,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1418,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>6</v>
       </c>
@@ -1420,8 +1428,8 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="20">
-        <v>5</v>
+      <c r="E40" s="21">
+        <v>40</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>51</v>
@@ -1429,7 +1437,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1450,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
@@ -1452,8 +1460,8 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="19">
-        <v>3</v>
+      <c r="E42" s="20">
+        <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1461,7 +1469,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
@@ -1471,8 +1479,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="19">
-        <v>5</v>
+      <c r="E43" s="20">
+        <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1480,7 +1488,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -1490,8 +1498,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="19">
-        <v>6</v>
+      <c r="E44" s="20">
+        <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1499,7 +1507,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1509,8 +1517,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="19">
-        <v>8</v>
+      <c r="E45" s="20">
+        <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1518,7 +1526,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
@@ -1528,8 +1536,8 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="19">
-        <v>9</v>
+      <c r="E46" s="20">
+        <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1537,7 +1545,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
@@ -1547,8 +1555,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="19">
-        <v>11</v>
+      <c r="E47" s="20">
+        <v>10</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1556,7 +1564,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1577,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
@@ -1579,8 +1587,8 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="20">
-        <v>8</v>
+      <c r="E49" s="21">
+        <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1588,7 +1596,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1609,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1619,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="20">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1620,7 +1628,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1638,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="20">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1639,7 +1647,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1657,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="20">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1658,7 +1666,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1676,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="20">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1677,7 +1685,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1695,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="20">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1696,7 +1704,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
@@ -1706,7 +1714,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="20">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1715,7 +1723,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1736,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
@@ -1738,8 +1746,8 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="20">
-        <v>6</v>
+      <c r="E58" s="21">
+        <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>45</v>
@@ -1747,7 +1755,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1768,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
@@ -1770,8 +1778,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="19">
-        <v>6</v>
+      <c r="E60" s="20">
+        <v>10</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1779,7 +1787,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1797,7 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="20">
         <v>10</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -1798,7 +1806,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -1808,8 +1816,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="19">
-        <v>19</v>
+      <c r="E62" s="20">
+        <v>10</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1817,7 +1825,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
         <v>6</v>
       </c>
@@ -1827,8 +1835,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="19">
-        <v>31</v>
+      <c r="E63" s="20">
+        <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1836,7 +1844,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
@@ -1846,8 +1854,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="19">
-        <v>37</v>
+      <c r="E64" s="20">
+        <v>10</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1855,7 +1863,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
@@ -1865,8 +1873,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="19">
-        <v>44</v>
+      <c r="E65" s="20">
+        <v>10</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1874,7 +1882,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +1895,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="9" t="s">
         <v>6</v>
       </c>
@@ -1897,8 +1905,8 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="20">
-        <v>60</v>
+      <c r="E67" s="21">
+        <v>30</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>47</v>
@@ -1906,7 +1914,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1927,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
@@ -1929,8 +1937,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="19">
-        <v>13</v>
+      <c r="E69" s="20">
+        <v>10</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1938,7 +1946,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -1948,8 +1956,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="19">
-        <v>18</v>
+      <c r="E70" s="20">
+        <v>10</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1957,7 +1965,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -1967,8 +1975,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="19">
-        <v>21</v>
+      <c r="E71" s="20">
+        <v>10</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1976,7 +1984,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
@@ -1986,8 +1994,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="19">
-        <v>25</v>
+      <c r="E72" s="20">
+        <v>10</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -1995,7 +2003,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
@@ -2005,8 +2013,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="19">
-        <v>30</v>
+      <c r="E73" s="20">
+        <v>10</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2014,7 +2022,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
         <v>6</v>
       </c>
@@ -2024,8 +2032,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="19">
-        <v>32</v>
+      <c r="E74" s="20">
+        <v>10</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2033,7 +2041,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2054,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>48</v>
@@ -2065,7 +2073,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2088,7 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>6</v>
       </c>
@@ -2091,13 +2099,13 @@
         <v>2020</v>
       </c>
       <c r="E78" s="18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>6</v>
       </c>
@@ -2108,13 +2116,13 @@
         <v>2025</v>
       </c>
       <c r="E79" s="18">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>6</v>
       </c>
@@ -2125,13 +2133,13 @@
         <v>2030</v>
       </c>
       <c r="E80" s="18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2142,13 +2150,13 @@
         <v>2035</v>
       </c>
       <c r="E81" s="18">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2159,13 +2167,13 @@
         <v>2040</v>
       </c>
       <c r="E82" s="18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2176,13 +2184,13 @@
         <v>2045</v>
       </c>
       <c r="E83" s="18">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2193,13 +2201,13 @@
         <v>2050</v>
       </c>
       <c r="E84" s="18">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2222,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2225,13 +2233,13 @@
         <v>2020</v>
       </c>
       <c r="E86" s="18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2242,13 +2250,13 @@
         <v>2025</v>
       </c>
       <c r="E87" s="18">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="F87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2259,13 +2267,13 @@
         <v>2030</v>
       </c>
       <c r="E88" s="18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2276,13 +2284,13 @@
         <v>2035</v>
       </c>
       <c r="E89" s="18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="F89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2293,13 +2301,13 @@
         <v>2040</v>
       </c>
       <c r="E90" s="18">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2310,13 +2318,13 @@
         <v>2045</v>
       </c>
       <c r="E91" s="18">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2327,13 +2335,13 @@
         <v>2050</v>
       </c>
       <c r="E92" s="18">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2349,15 +2357,15 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94">
-        <v>80</v>
+      <c r="E94" s="19">
+        <v>127.7</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2369,17 +2377,16 @@
         <v>28</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="N94" s="21"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95">
-        <v>70</v>
+      <c r="E95" s="19">
+        <v>127.7</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2391,17 +2398,16 @@
         <v>28</v>
       </c>
       <c r="I95" s="11"/>
-      <c r="N95" s="21"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96">
-        <v>50</v>
+      <c r="E96" s="19">
+        <v>127.7</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2413,17 +2419,16 @@
         <v>28</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="N96" s="21"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97">
-        <v>50</v>
+      <c r="E97" s="19">
+        <v>127.7</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2435,17 +2440,16 @@
         <v>28</v>
       </c>
       <c r="I97" s="11"/>
-      <c r="N97" s="21"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="21">
-        <v>40</v>
+      <c r="E98" s="19">
+        <v>127.7</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2457,17 +2461,16 @@
         <v>28</v>
       </c>
       <c r="I98" s="12"/>
-      <c r="N98" s="21"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="21">
-        <v>35</v>
+      <c r="E99" s="19">
+        <v>127.7</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2479,34 +2482,28 @@
         <v>28</v>
       </c>
       <c r="I99" s="11"/>
-      <c r="N99" s="21"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C100" s="13"/>
       <c r="D100" s="13"/>
-      <c r="E100" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="E100" s="14"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-      <c r="P100" s="21"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101">
-        <v>320</v>
+      <c r="E101" s="19">
+        <v>25</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2518,17 +2515,16 @@
         <v>29</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="P101" s="21"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102">
-        <v>340</v>
+      <c r="E102" s="19">
+        <v>25</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2540,17 +2536,16 @@
         <v>29</v>
       </c>
       <c r="I102" s="11"/>
-      <c r="P102" s="21"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103">
-        <v>360</v>
+      <c r="E103" s="19">
+        <v>25</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2562,17 +2557,16 @@
         <v>29</v>
       </c>
       <c r="I103" s="12"/>
-      <c r="P103" s="21"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104">
-        <v>360</v>
+      <c r="E104" s="19">
+        <v>25</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2584,17 +2578,16 @@
         <v>29</v>
       </c>
       <c r="I104" s="11"/>
-      <c r="P104" s="21"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105">
-        <v>380</v>
+      <c r="E105" s="19">
+        <v>25</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2607,15 +2600,15 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106">
-        <v>380</v>
+      <c r="E106" s="19">
+        <v>25</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2628,7 +2621,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2635,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2653,7 +2646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2664,7 +2657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2675,7 +2668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2697,7 +2690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>38</v>
       </c>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9CF16-D5B1-44EA-981D-F2626D1C3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7129E10-E579-4932-8EE6-DE7A61960576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -717,23 +717,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.53125" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="2.19921875" customWidth="1"/>
-    <col min="11" max="11" width="12.46484375" customWidth="1"/>
+    <col min="9" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="H11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>2025</v>
       </c>
       <c r="E94" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2030</v>
       </c>
       <c r="E95" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>2035</v>
       </c>
       <c r="E96" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="19">
-        <v>127.7</v>
+        <v>80</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>2025</v>
       </c>
       <c r="E101" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>2030</v>
       </c>
       <c r="E102" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>2035</v>
       </c>
       <c r="E103" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>2040</v>
       </c>
       <c r="E104" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>2045</v>
       </c>
       <c r="E105" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>2050</v>
       </c>
       <c r="E106" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>38</v>
       </c>
@@ -2724,6 +2724,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2918,15 +2927,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2941,6 +2941,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2957,12 +2965,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7129E10-E579-4932-8EE6-DE7A61960576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC5D27-C33C-4903-AC15-3C4E224BB9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2365,7 +2365,7 @@
         <v>2025</v>
       </c>
       <c r="E94" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2386,7 +2386,7 @@
         <v>2030</v>
       </c>
       <c r="E95" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         <v>2035</v>
       </c>
       <c r="E96" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2428,7 +2428,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2449,7 +2449,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2470,7 +2470,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2503,7 +2503,7 @@
         <v>2025</v>
       </c>
       <c r="E101" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2524,7 +2524,7 @@
         <v>2030</v>
       </c>
       <c r="E102" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2545,7 +2545,7 @@
         <v>2035</v>
       </c>
       <c r="E103" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2566,7 +2566,7 @@
         <v>2040</v>
       </c>
       <c r="E104" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2587,7 +2587,7 @@
         <v>2045</v>
       </c>
       <c r="E105" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2608,7 +2608,7 @@
         <v>2050</v>
       </c>
       <c r="E106" s="19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2724,15 +2724,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2927,6 +2918,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2941,14 +2941,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2965,4 +2957,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EC5D27-C33C-4903-AC15-3C4E224BB9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0F2D5-D6DF-44AE-A9F6-0782024616A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2365,7 @@
         <v>2025</v>
       </c>
       <c r="E94" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2386,7 +2386,7 @@
         <v>2030</v>
       </c>
       <c r="E95" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         <v>2035</v>
       </c>
       <c r="E96" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2428,7 +2428,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2449,7 +2449,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2470,7 +2470,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2724,6 +2724,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2918,15 +2927,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2941,6 +2941,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2957,12 +2965,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\VEDA\projektivov-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0F2D5-D6DF-44AE-A9F6-0782024616A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEFFCE4-EB96-459F-80F2-50C8A0AD493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="60">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Ograniczenia górne dla jądrówki</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,13 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,8 +402,8 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,6 +414,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFF3C9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,25 +717,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O113"/>
+  <dimension ref="B2:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="9" max="10" width="2.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -744,7 +746,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -772,7 +774,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +802,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
@@ -813,7 +815,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +834,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -851,7 +853,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -870,7 +872,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -889,7 +891,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -908,7 +910,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -928,7 +930,7 @@
       <c r="H11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -941,7 +943,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -960,7 +962,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
@@ -973,12 +975,12 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>2025</v>
@@ -992,12 +994,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5">
         <v>2030</v>
@@ -1011,12 +1013,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
         <v>2035</v>
@@ -1030,12 +1032,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5">
         <v>2040</v>
@@ -1049,12 +1051,12 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4">
         <v>2045</v>
@@ -1068,18 +1070,18 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5">
         <v>2050</v>
       </c>
       <c r="E20" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
@@ -1087,7 +1089,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1102,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>2040</v>
       </c>
       <c r="E22" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
@@ -1119,7 +1121,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -1132,18 +1134,18 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="20">
-        <v>4</v>
+      <c r="E24">
+        <v>0.61</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1151,18 +1153,18 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="20">
-        <v>8</v>
+      <c r="E25">
+        <v>1.55</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>52</v>
@@ -1170,18 +1172,18 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="20">
-        <v>12</v>
+      <c r="E26">
+        <v>6.85</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -1189,18 +1191,18 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="20">
-        <v>16</v>
+      <c r="E27">
+        <v>9.23</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -1208,18 +1210,18 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="20">
-        <v>20</v>
+      <c r="E28">
+        <v>17.77</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -1227,18 +1229,18 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="20">
-        <v>24</v>
+      <c r="E29">
+        <v>20.86</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1246,7 +1248,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1261,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
@@ -1270,7 +1272,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="21">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1278,7 +1280,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1293,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>2025</v>
       </c>
       <c r="E33" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>51</v>
@@ -1310,7 +1312,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>2030</v>
       </c>
       <c r="E34" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>51</v>
@@ -1329,7 +1331,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>2035</v>
       </c>
       <c r="E35" s="20">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>51</v>
@@ -1348,7 +1350,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>2040</v>
       </c>
       <c r="E36" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>51</v>
@@ -1367,7 +1369,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1380,7 @@
         <v>2045</v>
       </c>
       <c r="E37" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>51</v>
@@ -1386,7 +1388,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>2050</v>
       </c>
       <c r="E38" s="20">
-        <v>10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>51</v>
@@ -1405,7 +1407,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1420,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>2040</v>
       </c>
       <c r="E40" s="21">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>51</v>
@@ -1437,7 +1439,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1450,18 +1452,18 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>6</v>
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4">
         <v>2025</v>
       </c>
       <c r="E42" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1469,18 +1471,18 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43" s="5">
         <v>2030</v>
       </c>
       <c r="E43" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1488,18 +1490,18 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4">
         <v>2035</v>
       </c>
       <c r="E44" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1507,18 +1509,18 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45" s="5">
         <v>2040</v>
       </c>
       <c r="E45" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1526,12 +1528,12 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4">
         <v>2045</v>
@@ -1545,18 +1547,18 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47" s="5">
         <v>2050</v>
       </c>
       <c r="E47" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1564,7 +1566,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>2040</v>
       </c>
       <c r="E49" s="21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1596,7 +1598,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1630,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1649,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1668,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1687,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1706,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1725,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1738,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1757,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
@@ -1768,18 +1770,18 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
-        <v>6</v>
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4">
         <v>2025</v>
       </c>
       <c r="E60" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1787,18 +1789,18 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D61" s="5">
         <v>2030</v>
       </c>
       <c r="E61" s="20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1806,18 +1808,18 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4">
         <v>2035</v>
       </c>
       <c r="E62" s="20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1825,18 +1827,18 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D63" s="5">
         <v>2040</v>
       </c>
       <c r="E63" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1844,18 +1846,18 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4">
         <v>2045</v>
       </c>
       <c r="E64" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1863,18 +1865,18 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D65" s="5">
         <v>2050</v>
       </c>
       <c r="E65" s="20">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1882,7 +1884,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1897,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>2040</v>
       </c>
       <c r="E67" s="21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>47</v>
@@ -1914,7 +1916,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>14</v>
       </c>
@@ -1927,18 +1929,18 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
-        <v>6</v>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4">
         <v>2025</v>
       </c>
       <c r="E69" s="20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1946,18 +1948,18 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D70" s="5">
         <v>2030</v>
       </c>
       <c r="E70" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1965,18 +1967,18 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4">
         <v>2035</v>
       </c>
       <c r="E71" s="20">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1984,18 +1986,18 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D72" s="5">
         <v>2040</v>
       </c>
       <c r="E72" s="20">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2003,18 +2005,18 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D73" s="4">
         <v>2045</v>
       </c>
       <c r="E73" s="20">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2022,18 +2024,18 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D74" s="5">
         <v>2050</v>
       </c>
       <c r="E74" s="20">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2041,7 +2043,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2056,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>48</v>
@@ -2073,7 +2075,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -2088,9 +2090,9 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>6</v>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2099,15 +2101,15 @@
         <v>2020</v>
       </c>
       <c r="E78" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>6</v>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2116,15 +2118,15 @@
         <v>2025</v>
       </c>
       <c r="E79" s="18">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>6</v>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -2133,15 +2135,15 @@
         <v>2030</v>
       </c>
       <c r="E80" s="18">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>6</v>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2150,15 +2152,15 @@
         <v>2035</v>
       </c>
       <c r="E81" s="18">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>6</v>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -2167,15 +2169,15 @@
         <v>2040</v>
       </c>
       <c r="E82" s="18">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>6</v>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -2184,15 +2186,15 @@
         <v>2045</v>
       </c>
       <c r="E83" s="18">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>6</v>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -2201,13 +2203,13 @@
         <v>2050</v>
       </c>
       <c r="E84" s="18">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2222,9 +2224,9 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>6</v>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -2233,15 +2235,15 @@
         <v>2020</v>
       </c>
       <c r="E86" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>6</v>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -2250,15 +2252,15 @@
         <v>2025</v>
       </c>
       <c r="E87" s="18">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>6</v>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2267,15 +2269,15 @@
         <v>2030</v>
       </c>
       <c r="E88" s="18">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>6</v>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -2284,15 +2286,15 @@
         <v>2035</v>
       </c>
       <c r="E89" s="18">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>6</v>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2301,15 +2303,15 @@
         <v>2040</v>
       </c>
       <c r="E90" s="18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>6</v>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2318,15 +2320,15 @@
         <v>2045</v>
       </c>
       <c r="E91" s="18">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>6</v>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -2335,13 +2337,13 @@
         <v>2050</v>
       </c>
       <c r="E92" s="18">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>2025</v>
       </c>
       <c r="E94" s="19">
-        <v>25</v>
+        <v>90.34</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2378,7 +2380,7 @@
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>2030</v>
       </c>
       <c r="E95" s="19">
-        <v>25</v>
+        <v>42.71</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2399,7 +2401,7 @@
       </c>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>2035</v>
       </c>
       <c r="E96" s="19">
-        <v>25</v>
+        <v>40.69</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2420,7 +2422,7 @@
       </c>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>2040</v>
       </c>
       <c r="E97" s="19">
-        <v>25</v>
+        <v>37.83</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2441,7 +2443,7 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>2045</v>
       </c>
       <c r="E98" s="19">
-        <v>25</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2462,7 +2464,7 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>2050</v>
       </c>
       <c r="E99" s="19">
-        <v>25</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2483,19 +2485,23 @@
       </c>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
+      <c r="E100" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>2025</v>
       </c>
       <c r="E101" s="19">
-        <v>25</v>
+        <v>45.1</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2516,7 +2522,7 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>2030</v>
       </c>
       <c r="E102" s="19">
-        <v>25</v>
+        <v>49.51</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2537,7 +2543,7 @@
       </c>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>2035</v>
       </c>
       <c r="E103" s="19">
-        <v>25</v>
+        <v>54.47</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>2040</v>
       </c>
       <c r="E104" s="19">
-        <v>25</v>
+        <v>59.73</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2579,7 +2585,7 @@
       </c>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>2045</v>
       </c>
       <c r="E105" s="19">
-        <v>25</v>
+        <v>65.52</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2600,7 +2606,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>2050</v>
       </c>
       <c r="E106" s="19">
-        <v>25</v>
+        <v>72.08</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2621,7 +2627,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2641,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>38</v>
       </c>
@@ -2699,6 +2705,20 @@
       </c>
       <c r="F113" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>0.33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\VEDA\projektivov-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEFFCE4-EB96-459F-80F2-50C8A0AD493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0415AF2-7CDC-4D88-85A7-57FB9C80DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="60">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O114"/>
+  <dimension ref="B2:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2719,6 +2719,20 @@
       </c>
       <c r="F114" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115">
+        <v>0.4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2744,15 +2758,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2947,6 +2952,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -2961,14 +2975,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2985,4 +2991,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>